--- a/data/occupation_exposure_eval_data.xlsx
+++ b/data/occupation_exposure_eval_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bismillah screepsweet\AI-Occupation-Impact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84766D93-C060-42C5-8F3E-89699B399382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB9052A-6C90-425F-87F7-9937B0D52D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="3105" windowWidth="11025" windowHeight="8505" xr2:uid="{3393DF4A-4776-42F7-ABD6-37FD4B06FD4F}"/>
+    <workbookView xWindow="5610" yWindow="3795" windowWidth="11025" windowHeight="8505" xr2:uid="{3393DF4A-4776-42F7-ABD6-37FD4B06FD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -501,7 +501,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,14 +829,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4BC5D3-1114-4E4B-B77D-7BC0518DFA19}">
   <dimension ref="A1:CJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="112" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="3"/>
@@ -836,7 +847,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1099,7 +1110,7 @@
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="16">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C2" s="10">
@@ -1112,8 +1123,8 @@
         <v>6.25E-2</v>
       </c>
       <c r="F2" s="11">
-        <f>AVERAGE(C2:D2)</f>
-        <v>0.18124999999999999</v>
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.12916666666666665</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1404,7 +1415,7 @@
       <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="17">
         <v>0.36250000000000004</v>
       </c>
       <c r="C3" s="13">
@@ -1417,8 +1428,8 @@
         <v>6.25E-2</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F41" si="27">AVERAGE(C3:D3)</f>
-        <v>0.51875000000000004</v>
+        <f t="shared" ref="F3:F41" si="27">AVERAGE(B3:D3)</f>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
@@ -1710,7 +1721,7 @@
       <c r="A4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="17">
         <v>0.7583333333333333</v>
       </c>
       <c r="C4" s="13">
@@ -1724,7 +1735,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="27"/>
-        <v>0.63749999999999996</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -2016,7 +2027,7 @@
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="17">
         <v>0.55000000000000004</v>
       </c>
       <c r="C5" s="13">
@@ -2030,7 +2041,7 @@
       </c>
       <c r="F5" s="11">
         <f t="shared" si="27"/>
-        <v>0.52500000000000002</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -2322,7 +2333,7 @@
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="17">
         <v>0.64545454545454539</v>
       </c>
       <c r="C6" s="13">
@@ -2336,7 +2347,7 @@
       </c>
       <c r="F6" s="11">
         <f t="shared" si="27"/>
-        <v>0.50454545454545463</v>
+        <v>0.55151515151515151</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
@@ -2628,7 +2639,7 @@
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="17">
         <v>0.29090909090909095</v>
       </c>
       <c r="C7" s="14">
@@ -2642,7 +2653,7 @@
       </c>
       <c r="F7" s="11">
         <f t="shared" si="27"/>
-        <v>0.30454545454545456</v>
+        <v>0.3</v>
       </c>
       <c r="G7" s="13">
         <v>1</v>
@@ -2934,8 +2945,8 @@
       <c r="A8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="15">
-        <v>0.77777777777777779</v>
+      <c r="B8" s="17">
+        <v>0.5</v>
       </c>
       <c r="C8" s="14">
         <v>0.44444444444444442</v>
@@ -2948,7 +2959,7 @@
       </c>
       <c r="F8" s="11">
         <f t="shared" si="27"/>
-        <v>0.38888888888888884</v>
+        <v>0.42592592592592587</v>
       </c>
       <c r="G8" s="13">
         <v>0.9</v>
@@ -3240,7 +3251,7 @@
       <c r="A9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="17">
         <v>0.65</v>
       </c>
       <c r="C9" s="14">
@@ -3254,7 +3265,7 @@
       </c>
       <c r="F9" s="11">
         <f t="shared" si="27"/>
-        <v>0.375</v>
+        <v>0.46666666666666673</v>
       </c>
       <c r="G9" s="13">
         <v>1</v>
@@ -3546,7 +3557,7 @@
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="17">
         <v>0.52857142857142858</v>
       </c>
       <c r="C10" s="14">
@@ -3560,7 +3571,7 @@
       </c>
       <c r="F10" s="11">
         <f t="shared" si="27"/>
-        <v>0.5</v>
+        <v>0.50952380952380949</v>
       </c>
       <c r="G10" s="13">
         <v>1</v>
@@ -3852,7 +3863,7 @@
       <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="17">
         <v>0.31</v>
       </c>
       <c r="C11" s="14">
@@ -3866,7 +3877,7 @@
       </c>
       <c r="F11" s="11">
         <f t="shared" si="27"/>
-        <v>0.17642857142857143</v>
+        <v>0.22095238095238093</v>
       </c>
       <c r="G11" s="13">
         <v>1</v>
@@ -4158,8 +4169,8 @@
       <c r="A12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="15">
-        <v>0.70000000000000007</v>
+      <c r="B12" s="17">
+        <v>0.18333332999999999</v>
       </c>
       <c r="C12" s="14">
         <v>8.3333333333333329E-2</v>
@@ -4172,7 +4183,7 @@
       </c>
       <c r="F12" s="11">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>0.14444444333333331</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
@@ -4464,7 +4475,7 @@
       <c r="A13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="17">
         <v>0.65</v>
       </c>
       <c r="C13" s="14">
@@ -4478,7 +4489,7 @@
       </c>
       <c r="F13" s="11">
         <f t="shared" si="27"/>
-        <v>0.5708333333333333</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -4770,7 +4781,7 @@
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="17">
         <v>0.74</v>
       </c>
       <c r="C14" s="14">
@@ -4784,7 +4795,7 @@
       </c>
       <c r="F14" s="11">
         <f t="shared" si="27"/>
-        <v>0.73</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
@@ -5076,7 +5087,7 @@
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="17">
         <v>0.44000000000000006</v>
       </c>
       <c r="C15" s="14">
@@ -5090,7 +5101,7 @@
       </c>
       <c r="F15" s="11">
         <f t="shared" si="27"/>
-        <v>0.2311111111111111</v>
+        <v>0.30074074074074075</v>
       </c>
       <c r="G15" s="8">
         <v>0.94444444444444442</v>
@@ -5382,7 +5393,7 @@
       <c r="A16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="17">
         <v>0.625</v>
       </c>
       <c r="C16" s="14">
@@ -5396,7 +5407,7 @@
       </c>
       <c r="F16" s="11">
         <f t="shared" si="27"/>
-        <v>0.66339285714285712</v>
+        <v>0.65059523809523812</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -5688,7 +5699,7 @@
       <c r="A17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="17">
         <v>0.6875</v>
       </c>
       <c r="C17" s="8">
@@ -5702,7 +5713,7 @@
       </c>
       <c r="F17" s="11">
         <f t="shared" si="27"/>
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
@@ -5994,7 +6005,7 @@
       <c r="A18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="17">
         <v>1</v>
       </c>
       <c r="C18" s="8">
@@ -6008,7 +6019,7 @@
       </c>
       <c r="F18" s="11">
         <f t="shared" si="27"/>
-        <v>0.73333333333333328</v>
+        <v>0.8222222222222223</v>
       </c>
       <c r="G18" s="8">
         <v>1</v>
@@ -6300,7 +6311,7 @@
       <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
       <c r="C19" s="8">
@@ -6314,7 +6325,7 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="27"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G19" s="8">
         <v>1</v>
@@ -6606,8 +6617,8 @@
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="7">
-        <v>0.96666666666666667</v>
+      <c r="B20" s="17">
+        <v>0.68333332999999996</v>
       </c>
       <c r="C20" s="8">
         <v>0.41666666666666669</v>
@@ -6620,7 +6631,7 @@
       </c>
       <c r="F20" s="11">
         <f t="shared" si="27"/>
-        <v>0.45833333333333337</v>
+        <v>0.53333333222222223</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -6912,7 +6923,7 @@
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="17">
         <v>0.43636363636363645</v>
       </c>
       <c r="C21" s="8">
@@ -6926,7 +6937,7 @@
       </c>
       <c r="F21" s="11">
         <f t="shared" si="27"/>
-        <v>0.15454545454545454</v>
+        <v>0.2484848484848485</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -7218,8 +7229,8 @@
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7">
-        <v>0.74285714285714288</v>
+      <c r="B22" s="17">
+        <v>0.571428571</v>
       </c>
       <c r="C22" s="8">
         <v>0.35714285714285715</v>
@@ -7232,7 +7243,7 @@
       </c>
       <c r="F22" s="11">
         <f t="shared" si="27"/>
-        <v>0.39285714285714285</v>
+        <v>0.45238095223809527</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -7524,8 +7535,8 @@
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="7">
-        <v>0.41249999999999998</v>
+      <c r="B23" s="17">
+        <v>0.16250000000000001</v>
       </c>
       <c r="C23" s="8">
         <v>0.125</v>
@@ -7538,7 +7549,7 @@
       </c>
       <c r="F23" s="11">
         <f t="shared" si="27"/>
-        <v>0.125</v>
+        <v>0.13749999999999998</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
@@ -7830,7 +7841,7 @@
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="17">
         <v>0.5</v>
       </c>
       <c r="C24" s="8">
@@ -7844,7 +7855,7 @@
       </c>
       <c r="F24" s="11">
         <f t="shared" si="27"/>
-        <v>0.29166666666666669</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -8136,8 +8147,8 @@
       <c r="A25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="7">
-        <v>0.84545454545454557</v>
+      <c r="B25" s="17">
+        <v>0.38181818200000001</v>
       </c>
       <c r="C25" s="8">
         <v>0.25454545454545452</v>
@@ -8150,7 +8161,7 @@
       </c>
       <c r="F25" s="11">
         <f t="shared" si="27"/>
-        <v>0.21818181818181817</v>
+        <v>0.27272727278787884</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -8442,8 +8453,8 @@
       <c r="A26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="7">
-        <v>0.65</v>
+      <c r="B26" s="17">
+        <v>0.37</v>
       </c>
       <c r="C26" s="8">
         <v>0.05</v>
@@ -8456,7 +8467,7 @@
       </c>
       <c r="F26" s="11">
         <f t="shared" si="27"/>
-        <v>0.1</v>
+        <v>0.18999999999999997</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
@@ -8748,8 +8759,8 @@
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="7">
-        <v>0.7142857142857143</v>
+      <c r="B27" s="17">
+        <v>0.22857142899999999</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
@@ -8762,7 +8773,7 @@
       </c>
       <c r="F27" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>7.6190476333333326E-2</v>
       </c>
       <c r="G27" s="8">
         <v>1</v>
@@ -9054,7 +9065,7 @@
       <c r="A28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="17">
         <v>5.7142857142857148E-2</v>
       </c>
       <c r="C28" s="8">
@@ -9068,7 +9079,7 @@
       </c>
       <c r="F28" s="11">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.9047619047619049E-2</v>
       </c>
       <c r="G28" s="8">
         <v>1</v>
@@ -9360,8 +9371,8 @@
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7">
-        <v>0.88571428571428579</v>
+      <c r="B29" s="17">
+        <v>0.242857143</v>
       </c>
       <c r="C29" s="8">
         <v>0</v>
@@ -9374,7 +9385,7 @@
       </c>
       <c r="F29" s="11">
         <f t="shared" si="27"/>
-        <v>3.5714285714285712E-2</v>
+        <v>0.10476190480952381</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -9666,8 +9677,8 @@
       <c r="A30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="7">
-        <v>0.75833333333333319</v>
+      <c r="B30" s="17">
+        <v>0.15</v>
       </c>
       <c r="C30" s="8">
         <v>4.1666666666666664E-2</v>
@@ -9680,7 +9691,7 @@
       </c>
       <c r="F30" s="11">
         <f t="shared" si="27"/>
-        <v>0.27083333333333331</v>
+        <v>0.23055555555555554</v>
       </c>
       <c r="G30" s="8">
         <v>0.92592592592592593</v>
@@ -9972,8 +9983,8 @@
       <c r="A31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="7">
-        <v>0.88749999999999996</v>
+      <c r="B31" s="17">
+        <v>0.42499999999999999</v>
       </c>
       <c r="C31" s="8">
         <v>0.27499999999999997</v>
@@ -9986,7 +9997,7 @@
       </c>
       <c r="F31" s="11">
         <f t="shared" si="27"/>
-        <v>0.41874999999999996</v>
+        <v>0.42083333333333334</v>
       </c>
       <c r="G31" s="8">
         <v>1</v>
@@ -10278,8 +10289,8 @@
       <c r="A32" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="7">
-        <v>0.5625</v>
+      <c r="B32" s="17">
+        <v>0.36249999999999999</v>
       </c>
       <c r="C32" s="8">
         <v>0</v>
@@ -10292,7 +10303,7 @@
       </c>
       <c r="F32" s="11">
         <f t="shared" si="27"/>
-        <v>3.125E-2</v>
+        <v>0.14166666666666666</v>
       </c>
       <c r="G32" s="8">
         <v>1</v>
@@ -10584,8 +10595,8 @@
       <c r="A33" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="7">
-        <v>0.63749999999999996</v>
+      <c r="B33" s="17">
+        <v>0.3</v>
       </c>
       <c r="C33" s="8">
         <v>0.16666666666666666</v>
@@ -10598,7 +10609,7 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" si="27"/>
-        <v>0.1388888888888889</v>
+        <v>0.19259259259259257</v>
       </c>
       <c r="G33" s="8">
         <v>1</v>
@@ -10890,7 +10901,7 @@
       <c r="A34" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="17">
         <v>0.86</v>
       </c>
       <c r="C34" s="8">
@@ -10904,7 +10915,7 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="27"/>
-        <v>0.63</v>
+        <v>0.70666666666666667</v>
       </c>
       <c r="G34" s="8">
         <v>1</v>
@@ -11196,7 +11207,7 @@
       <c r="A35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="17">
         <v>0.52</v>
       </c>
       <c r="C35" s="8">
@@ -11210,7 +11221,7 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="27"/>
-        <v>0.82000000000000006</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -11502,7 +11513,7 @@
       <c r="A36" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="17">
         <v>0.8571428571428571</v>
       </c>
       <c r="C36" s="7">
@@ -11516,7 +11527,7 @@
       </c>
       <c r="F36" s="11">
         <f t="shared" si="27"/>
-        <v>1.4285714285714287E-2</v>
+        <v>0.29523809523809524</v>
       </c>
       <c r="G36" s="8">
         <v>0.875</v>
@@ -11808,7 +11819,7 @@
       <c r="A37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="17">
         <v>0.66249999999999998</v>
       </c>
       <c r="C37" s="7">
@@ -11822,7 +11833,7 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="27"/>
-        <v>6.25E-2</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -12114,8 +12125,8 @@
       <c r="A38" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="7">
-        <v>0.77142857142857146</v>
+      <c r="B38" s="17">
+        <v>0.38571428600000002</v>
       </c>
       <c r="C38" s="8">
         <v>0</v>
@@ -12128,7 +12139,7 @@
       </c>
       <c r="F38" s="11">
         <f t="shared" si="27"/>
-        <v>0.14285714285714285</v>
+        <v>0.22380952390476191</v>
       </c>
       <c r="G38" s="8">
         <v>0.83333333333333337</v>
@@ -12420,7 +12431,7 @@
       <c r="A39" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="17">
         <v>0.75555555555555554</v>
       </c>
       <c r="C39" s="8">
@@ -12434,7 +12445,7 @@
       </c>
       <c r="F39" s="11">
         <f t="shared" si="27"/>
-        <v>0.43333333333333335</v>
+        <v>0.54074074074074074</v>
       </c>
       <c r="G39" s="8">
         <v>1</v>
@@ -12726,7 +12737,7 @@
       <c r="A40" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="17">
         <v>0.72499999999999998</v>
       </c>
       <c r="C40" s="8">
@@ -12740,7 +12751,7 @@
       </c>
       <c r="F40" s="11">
         <f t="shared" si="27"/>
-        <v>0.3125</v>
+        <v>0.45</v>
       </c>
       <c r="G40" s="8">
         <v>1</v>
@@ -13032,8 +13043,8 @@
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7">
-        <v>0.72500000000000009</v>
+      <c r="B41" s="17">
+        <v>0.17499999999999999</v>
       </c>
       <c r="C41" s="8">
         <v>0</v>
@@ -13046,7 +13057,7 @@
       </c>
       <c r="F41" s="11">
         <f t="shared" si="27"/>
-        <v>6.25E-2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="G41" s="8">
         <v>1</v>
